--- a/biology/Médecine/Jules_Lefort_(chimiste)/Jules_Lefort_(chimiste).xlsx
+++ b/biology/Médecine/Jules_Lefort_(chimiste)/Jules_Lefort_(chimiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules François Lefort, né le 26 juillet 1819 à Bourbon-l’Archambault et mort le 6 avril 1896 à Pierrefonds (Oise), est un pharmacien et chimiste français. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Interne des hôpitaux civils de Paris en 1842, reçu pharmacien le 8 août 1845, Lefort est surtout connu pour ses études sur les eaux naturelles et minérales[1].
-Il est élu membre de la section de pharmacie de l’Académie de médecine le 27 février 1872[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Interne des hôpitaux civils de Paris en 1842, reçu pharmacien le 8 août 1845, Lefort est surtout connu pour ses études sur les eaux naturelles et minérales.
+Il est élu membre de la section de pharmacie de l’Académie de médecine le 27 février 1872.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1858 : Nouveau procédé d'analyse qualitative des eaux douces
 1845 : Mémoire sur les protosels de mercure et sur les produits ammoniacaux qui en résultent
